--- a/src/main/resources/shoppingcart.xlsx
+++ b/src/main/resources/shoppingcart.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\samplemavonproj\Spoonacularmealplanner\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993C6046-822D-41DB-96CA-1395520A6A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10865EA4-C943-419A-BE56-80228ADC1A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{55C8104B-96C7-454F-9AD9-D74460A7A822}"/>
+    <workbookView xWindow="4080" yWindow="1728" windowWidth="21012" windowHeight="8880" xr2:uid="{55C8104B-96C7-454F-9AD9-D74460A7A822}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,23 +26,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Likes</t>
   </si>
   <si>
-    <t>Apple Or Peach Strudel</t>
-  </si>
-  <si>
     <t>https://spoonacular.com/recipeImages/73420-312x231.jpg</t>
   </si>
   <si>
-    <t>Apricot Glazed Apple Tart</t>
-  </si>
-  <si>
-    <t>https://spoonacular.com/recipeImages/632660-312x231.jpg</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -51,15 +43,9 @@
     <t>Image</t>
   </si>
   <si>
-    <t>Cereal</t>
-  </si>
-  <si>
     <t>https://spoonacular.com/cdn/ingredients_100x100/rolled-oats.jpg</t>
   </si>
   <si>
-    <t>granny smith apples</t>
-  </si>
-  <si>
     <t>https://spoonacular.com/cdn/ingredients_100x100/grannysmith-apple.png</t>
   </si>
   <si>
@@ -67,13 +53,31 @@
   </si>
   <si>
     <t>CUPS(1 cup eq to 100 gm)</t>
+  </si>
+  <si>
+    <t>Asparagus</t>
+  </si>
+  <si>
+    <t>cooked pasta</t>
+  </si>
+  <si>
+    <t>https://spoonacular.com/recipeImages/716429-556x370.jpg</t>
+  </si>
+  <si>
+    <t> Chicken</t>
+  </si>
+  <si>
+    <t>condensed cream of mushroom soup</t>
+  </si>
+  <si>
+    <t>white cake mix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,39 +103,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF0451A5"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -139,12 +157,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFEDF0F3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFEDF0F3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFEDF0F3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFEDF0F3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -155,16 +188,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,35 +530,35 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="32.77734375" customWidth="1"/>
     <col min="3" max="3" width="77" customWidth="1"/>
     <col min="4" max="4" width="9.44140625" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -525,15 +570,15 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>73420</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:15" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
+        <v>428278</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -555,15 +600,15 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>632660</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>20421</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2">
         <v>3</v>
@@ -585,15 +630,15 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>8120</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
+    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
+        <v>795751</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -607,14 +652,14 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>1089003</v>
+      <c r="A5" s="2">
+        <v>18137</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="D5">
         <v>11</v>
@@ -630,9 +675,59 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{D91577ED-D834-4DBA-AEF5-36A32C823B30}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{1D9D92AB-7888-4D52-B313-E5496C326D73}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{C2DABB77-44BA-4DD8-8D72-C2D84075000B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD09FBF-F2FE-4776-829A-77EB60C65271}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>11011</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>